--- a/Code/Results/Cases/Case_8_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.23465416178488</v>
+        <v>15.13297133487957</v>
       </c>
       <c r="C2">
-        <v>7.685765425593967</v>
+        <v>8.529906050731238</v>
       </c>
       <c r="D2">
-        <v>2.484887976760247</v>
+        <v>3.040468164678185</v>
       </c>
       <c r="E2">
-        <v>5.410949651583476</v>
+        <v>5.966682598883353</v>
       </c>
       <c r="F2">
-        <v>35.56858643504226</v>
+        <v>32.18151856998789</v>
       </c>
       <c r="G2">
-        <v>2.153967191025469</v>
+        <v>10.28958536561537</v>
       </c>
       <c r="H2">
-        <v>4.25935811313712</v>
+        <v>3.580667630952589</v>
       </c>
       <c r="I2">
-        <v>4.82043638753973</v>
+        <v>4.121351086444298</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.4556782337056</v>
+        <v>21.73783670613968</v>
       </c>
       <c r="L2">
-        <v>5.396569592179993</v>
+        <v>16.83848211474549</v>
       </c>
       <c r="M2">
-        <v>13.80285734136783</v>
+        <v>15.42802478025948</v>
       </c>
       <c r="N2">
-        <v>7.003282326922775</v>
+        <v>5.477870912009672</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.16879305758441</v>
       </c>
       <c r="P2">
-        <v>16.23541837191167</v>
+        <v>7.368411626659227</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>15.07348257370815</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.33623205197384</v>
+        <v>14.26717168869333</v>
       </c>
       <c r="C3">
-        <v>7.209253067285363</v>
+        <v>7.919141951304855</v>
       </c>
       <c r="D3">
-        <v>2.429372717872387</v>
+        <v>2.940897243652874</v>
       </c>
       <c r="E3">
-        <v>5.237269933000411</v>
+        <v>5.838850610158168</v>
       </c>
       <c r="F3">
-        <v>34.78936569079277</v>
+        <v>31.48270140204059</v>
       </c>
       <c r="G3">
-        <v>2.159257406448468</v>
+        <v>10.94149717382331</v>
       </c>
       <c r="H3">
-        <v>4.520271876325746</v>
+        <v>3.796995567725266</v>
       </c>
       <c r="I3">
-        <v>5.032853211909715</v>
+        <v>4.28696362527069</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.12793605227997</v>
+        <v>21.48814406288675</v>
       </c>
       <c r="L3">
-        <v>5.317965458939592</v>
+        <v>16.76647128387208</v>
       </c>
       <c r="M3">
-        <v>13.11638316677818</v>
+        <v>15.15164901692853</v>
       </c>
       <c r="N3">
-        <v>6.789604826581116</v>
+        <v>5.420650856129738</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.45585910771402</v>
       </c>
       <c r="P3">
-        <v>16.3122102882899</v>
+        <v>7.149882436509443</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>15.16621594577754</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.75759231531502</v>
+        <v>13.70568596388081</v>
       </c>
       <c r="C4">
-        <v>6.918128828988931</v>
+        <v>7.524812664422689</v>
       </c>
       <c r="D4">
-        <v>2.395356943094956</v>
+        <v>2.879936144693509</v>
       </c>
       <c r="E4">
-        <v>5.127207049636416</v>
+        <v>5.758370387539014</v>
       </c>
       <c r="F4">
-        <v>34.30703165699836</v>
+        <v>31.04600760956089</v>
       </c>
       <c r="G4">
-        <v>2.162613485488716</v>
+        <v>11.35557012359701</v>
       </c>
       <c r="H4">
-        <v>4.686105309112171</v>
+        <v>3.934704794847883</v>
       </c>
       <c r="I4">
-        <v>5.168348148346084</v>
+        <v>4.393096905599448</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>23.92583057397998</v>
+        <v>21.33192238358645</v>
       </c>
       <c r="L4">
-        <v>5.267976297328112</v>
+        <v>16.71578729155474</v>
       </c>
       <c r="M4">
-        <v>12.67912477882194</v>
+        <v>14.99407988179519</v>
       </c>
       <c r="N4">
-        <v>6.655840764233554</v>
+        <v>5.384159693317338</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.99737150238607</v>
       </c>
       <c r="P4">
-        <v>16.35975966113597</v>
+        <v>7.013382722878498</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>15.22306699218441</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.50893594705429</v>
+        <v>13.46335581958338</v>
       </c>
       <c r="C5">
-        <v>6.803351303843372</v>
+        <v>7.364283909151147</v>
       </c>
       <c r="D5">
-        <v>2.383148028964008</v>
+        <v>2.857278520421788</v>
       </c>
       <c r="E5">
-        <v>5.08115657031576</v>
+        <v>5.724831000756506</v>
       </c>
       <c r="F5">
-        <v>34.09622869386646</v>
+        <v>30.85326254700883</v>
       </c>
       <c r="G5">
-        <v>2.16401934592246</v>
+        <v>11.52915019369274</v>
       </c>
       <c r="H5">
-        <v>4.755632527852684</v>
+        <v>3.992491570902389</v>
       </c>
       <c r="I5">
-        <v>5.227205559818975</v>
+        <v>4.44023725084881</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>23.83338622226863</v>
+        <v>21.25820622798703</v>
       </c>
       <c r="L5">
-        <v>5.246511425583082</v>
+        <v>16.68532726883804</v>
       </c>
       <c r="M5">
-        <v>12.49483219223984</v>
+        <v>14.92709254288011</v>
       </c>
       <c r="N5">
-        <v>6.601774908535154</v>
+        <v>5.368401999971267</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.80311909073846</v>
       </c>
       <c r="P5">
-        <v>16.37609037809385</v>
+        <v>6.958210622992262</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>15.24356535595071</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.45961084176282</v>
+        <v>13.41520118312801</v>
       </c>
       <c r="C6">
-        <v>6.790840593078418</v>
+        <v>7.343502250907632</v>
       </c>
       <c r="D6">
-        <v>2.383121315633399</v>
+        <v>2.856092315812962</v>
       </c>
       <c r="E6">
-        <v>5.073031191496626</v>
+        <v>5.718921674731388</v>
       </c>
       <c r="F6">
-        <v>34.04472378469514</v>
+        <v>30.80522293500136</v>
       </c>
       <c r="G6">
-        <v>2.164267381385716</v>
+        <v>11.55979528994222</v>
       </c>
       <c r="H6">
-        <v>4.767885089171738</v>
+        <v>4.002680242701519</v>
       </c>
       <c r="I6">
-        <v>5.240033201633524</v>
+        <v>4.45165956109207</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>23.80590560693921</v>
+        <v>21.23449399921929</v>
       </c>
       <c r="L6">
-        <v>5.242118077705017</v>
+        <v>16.67019731584886</v>
       </c>
       <c r="M6">
-        <v>12.46114309352274</v>
+        <v>14.90883768099262</v>
       </c>
       <c r="N6">
-        <v>6.594032990269135</v>
+        <v>5.3651011434389</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.76769392060704</v>
       </c>
       <c r="P6">
-        <v>16.37496488805665</v>
+        <v>6.950214386415595</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>15.24373263898805</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.73378871426984</v>
+        <v>13.6638844313977</v>
       </c>
       <c r="C7">
-        <v>6.934312574332485</v>
+        <v>7.493626890921414</v>
       </c>
       <c r="D7">
-        <v>2.400642240160448</v>
+        <v>2.905965388812886</v>
       </c>
       <c r="E7">
-        <v>5.125436460497849</v>
+        <v>5.763540296063767</v>
       </c>
       <c r="F7">
-        <v>34.25960050805203</v>
+        <v>30.92065861617381</v>
       </c>
       <c r="G7">
-        <v>2.162667138755428</v>
+        <v>11.4080773736059</v>
       </c>
       <c r="H7">
-        <v>4.688708225050885</v>
+        <v>3.939236245067435</v>
       </c>
       <c r="I7">
-        <v>5.177036304782131</v>
+        <v>4.405285130327842</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>23.89165473832307</v>
+        <v>21.25395230272228</v>
       </c>
       <c r="L7">
-        <v>5.26551754797299</v>
+        <v>16.64918482932034</v>
       </c>
       <c r="M7">
-        <v>12.66894978883458</v>
+        <v>14.94273606934934</v>
       </c>
       <c r="N7">
-        <v>6.658550110838098</v>
+        <v>5.381018805423466</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.96029371953311</v>
       </c>
       <c r="P7">
-        <v>16.349537549112</v>
+        <v>7.012796745401735</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>15.20024022377539</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.90520022277351</v>
+        <v>14.75857798188419</v>
       </c>
       <c r="C8">
-        <v>7.535876749983113</v>
+        <v>8.204511889954937</v>
       </c>
       <c r="D8">
-        <v>2.472900062552422</v>
+        <v>3.07750981918367</v>
       </c>
       <c r="E8">
-        <v>5.350323416911055</v>
+        <v>5.943037684143271</v>
       </c>
       <c r="F8">
-        <v>35.2435403929806</v>
+        <v>31.63158317901129</v>
       </c>
       <c r="G8">
-        <v>2.155813333848423</v>
+        <v>10.71388989984797</v>
       </c>
       <c r="H8">
-        <v>4.350284956784866</v>
+        <v>3.66350393297303</v>
       </c>
       <c r="I8">
-        <v>4.902660301705508</v>
+        <v>4.196442804172023</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.30017146757905</v>
+        <v>21.46395541650481</v>
       </c>
       <c r="L8">
-        <v>5.36704346082759</v>
+        <v>16.65932497804469</v>
       </c>
       <c r="M8">
-        <v>13.55989721552157</v>
+        <v>15.19989927759412</v>
       </c>
       <c r="N8">
-        <v>6.9345699348798</v>
+        <v>5.452550161743859</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.83450350421249</v>
       </c>
       <c r="P8">
-        <v>16.24824280153647</v>
+        <v>7.287884044062517</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>15.04865339855309</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.01528397579598</v>
+        <v>16.76538582631617</v>
       </c>
       <c r="C9">
-        <v>8.776488964390641</v>
+        <v>9.58689325940443</v>
       </c>
       <c r="D9">
-        <v>2.605270785597469</v>
+        <v>3.329315367920845</v>
       </c>
       <c r="E9">
-        <v>5.765732272044565</v>
+        <v>6.256084914902137</v>
       </c>
       <c r="F9">
-        <v>37.21112426882646</v>
+        <v>33.32517438144856</v>
       </c>
       <c r="G9">
-        <v>2.143145028281729</v>
+        <v>9.210201751123574</v>
       </c>
       <c r="H9">
-        <v>3.727333302269496</v>
+        <v>3.149944269080802</v>
       </c>
       <c r="I9">
-        <v>4.390946844157752</v>
+        <v>3.798393160505385</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.14973811383221</v>
+        <v>22.07293932390072</v>
       </c>
       <c r="L9">
-        <v>5.556315082458267</v>
+        <v>16.81589154615653</v>
       </c>
       <c r="M9">
-        <v>15.18762978678435</v>
+        <v>15.94187700752373</v>
       </c>
       <c r="N9">
-        <v>7.44754982967446</v>
+        <v>5.589311487297873</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.49043498686574</v>
       </c>
       <c r="P9">
-        <v>16.07095420673898</v>
+        <v>7.812229459275385</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>14.81678263869945</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.35554808996621</v>
+        <v>17.9458339626127</v>
       </c>
       <c r="C10">
-        <v>9.628913380383802</v>
+        <v>10.30578340736944</v>
       </c>
       <c r="D10">
-        <v>2.688737292261335</v>
+        <v>3.597238316084698</v>
       </c>
       <c r="E10">
-        <v>5.984957440014528</v>
+        <v>6.446162659757433</v>
       </c>
       <c r="F10">
-        <v>38.38373523948109</v>
+        <v>33.90039446535783</v>
       </c>
       <c r="G10">
-        <v>2.134510101017326</v>
+        <v>8.917717367697579</v>
       </c>
       <c r="H10">
-        <v>3.322789918312933</v>
+        <v>2.833783170172369</v>
       </c>
       <c r="I10">
-        <v>4.050752264513798</v>
+        <v>3.549472652241025</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.61839765870957</v>
+        <v>22.13895576312385</v>
       </c>
       <c r="L10">
-        <v>5.658756553753114</v>
+        <v>16.62328974432548</v>
       </c>
       <c r="M10">
-        <v>16.25051551426714</v>
+        <v>16.25452280336756</v>
       </c>
       <c r="N10">
-        <v>7.731158964283609</v>
+        <v>5.65486179981642</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.43332575965572</v>
       </c>
       <c r="P10">
-        <v>15.89348711725609</v>
+        <v>8.086655167437078</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>14.53938189123944</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.38238806902154</v>
+        <v>17.83921353108668</v>
       </c>
       <c r="C11">
-        <v>9.963112336652806</v>
+        <v>10.18193373482901</v>
       </c>
       <c r="D11">
-        <v>2.597851420893017</v>
+        <v>3.746595871681212</v>
       </c>
       <c r="E11">
-        <v>5.553026987532213</v>
+        <v>6.077103413380395</v>
       </c>
       <c r="F11">
-        <v>36.95064193877656</v>
+        <v>31.73685805863067</v>
       </c>
       <c r="G11">
-        <v>2.132264459014208</v>
+        <v>11.21395587098704</v>
       </c>
       <c r="H11">
-        <v>3.927211254405344</v>
+        <v>3.55845180134122</v>
       </c>
       <c r="I11">
-        <v>3.984650479675098</v>
+        <v>3.526769199188144</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.64438338131693</v>
+        <v>20.79342394843655</v>
       </c>
       <c r="L11">
-        <v>5.504235655160651</v>
+        <v>15.50712273151506</v>
       </c>
       <c r="M11">
-        <v>16.3441083574919</v>
+        <v>15.34745483160627</v>
       </c>
       <c r="N11">
-        <v>7.193602968525497</v>
+        <v>5.521970703637488</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.28654725477424</v>
       </c>
       <c r="P11">
-        <v>15.43391483623296</v>
+        <v>7.49927018836819</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>14.07434523366432</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14898060145537</v>
+        <v>17.57863897632911</v>
       </c>
       <c r="C12">
-        <v>10.04965634458392</v>
+        <v>10.03083981051548</v>
       </c>
       <c r="D12">
-        <v>2.518540987407583</v>
+        <v>3.740891601947996</v>
       </c>
       <c r="E12">
-        <v>5.239667472506286</v>
+        <v>5.774780499396354</v>
       </c>
       <c r="F12">
-        <v>35.54034758817949</v>
+        <v>30.09957752388888</v>
       </c>
       <c r="G12">
-        <v>2.132018252503064</v>
+        <v>12.6564201068942</v>
       </c>
       <c r="H12">
-        <v>5.011044142837498</v>
+        <v>4.730115153276375</v>
       </c>
       <c r="I12">
-        <v>3.981301743090273</v>
+        <v>3.531613358554359</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.76995437678678</v>
+        <v>19.8552324462616</v>
       </c>
       <c r="L12">
-        <v>5.413890755630116</v>
+        <v>14.77805532812408</v>
       </c>
       <c r="M12">
-        <v>16.20844175781781</v>
+        <v>14.6631224578585</v>
       </c>
       <c r="N12">
-        <v>6.688132015890528</v>
+        <v>5.459371252002652</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.04933387341842</v>
       </c>
       <c r="P12">
-        <v>15.12144839529923</v>
+        <v>6.964101735324379</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>13.83960112919836</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.66915380710511</v>
+        <v>17.18939899038921</v>
       </c>
       <c r="C13">
-        <v>9.97253119840709</v>
+        <v>9.944781830300132</v>
       </c>
       <c r="D13">
-        <v>2.412461983407607</v>
+        <v>3.581776700250217</v>
       </c>
       <c r="E13">
-        <v>5.008186220784693</v>
+        <v>5.521325689937133</v>
       </c>
       <c r="F13">
-        <v>33.98186846322058</v>
+        <v>28.8434610977134</v>
       </c>
       <c r="G13">
-        <v>2.133347945105755</v>
+        <v>12.417481214754</v>
       </c>
       <c r="H13">
-        <v>6.271539499854725</v>
+        <v>6.03512228489774</v>
       </c>
       <c r="I13">
-        <v>4.038892545705438</v>
+        <v>3.571157241901253</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.86695587037485</v>
+        <v>19.20135196314352</v>
       </c>
       <c r="L13">
-        <v>5.365025471223007</v>
+        <v>14.30432266048195</v>
       </c>
       <c r="M13">
-        <v>15.87407747180457</v>
+        <v>14.14348159445844</v>
       </c>
       <c r="N13">
-        <v>6.179645495914725</v>
+        <v>5.444509636709983</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.76652418684193</v>
       </c>
       <c r="P13">
-        <v>14.8894299863902</v>
+        <v>6.44401029250006</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>13.74348853933429</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.21040034685336</v>
+        <v>16.84679494364944</v>
       </c>
       <c r="C14">
-        <v>9.847427509301241</v>
+        <v>9.91269708640897</v>
       </c>
       <c r="D14">
-        <v>2.326725704322958</v>
+        <v>3.406033604743799</v>
       </c>
       <c r="E14">
-        <v>4.905351698041704</v>
+        <v>5.399998663443649</v>
       </c>
       <c r="F14">
-        <v>32.80910759655555</v>
+        <v>28.10417214278102</v>
       </c>
       <c r="G14">
-        <v>2.134993726431486</v>
+        <v>11.5452315515585</v>
       </c>
       <c r="H14">
-        <v>7.209288782921542</v>
+        <v>6.989489160628154</v>
       </c>
       <c r="I14">
-        <v>4.109012486582</v>
+        <v>3.61791375022755</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.21641321266206</v>
+        <v>18.85059305984717</v>
       </c>
       <c r="L14">
-        <v>5.357640733399928</v>
+        <v>14.06683372411445</v>
       </c>
       <c r="M14">
-        <v>15.54398007239294</v>
+        <v>13.84199295891806</v>
       </c>
       <c r="N14">
-        <v>5.828407887493802</v>
+        <v>5.462086057523343</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.53983643068897</v>
       </c>
       <c r="P14">
-        <v>14.76607503108976</v>
+        <v>6.091501665651737</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>13.72617095097379</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.03849338442118</v>
+        <v>16.72588167648491</v>
       </c>
       <c r="C15">
-        <v>9.786754537470941</v>
+        <v>9.917364627030993</v>
       </c>
       <c r="D15">
-        <v>2.302380472877444</v>
+        <v>3.337877495914158</v>
       </c>
       <c r="E15">
-        <v>4.883852964573823</v>
+        <v>5.376981455169275</v>
       </c>
       <c r="F15">
-        <v>32.47912662868311</v>
+        <v>27.97349994661348</v>
       </c>
       <c r="G15">
-        <v>2.135757927995389</v>
+        <v>11.06804964415692</v>
       </c>
       <c r="H15">
-        <v>7.435451568768088</v>
+        <v>7.215569967656417</v>
       </c>
       <c r="I15">
-        <v>4.143324586742994</v>
+        <v>3.64197786688056</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.04212525271639</v>
+        <v>18.80218300860056</v>
       </c>
       <c r="L15">
-        <v>5.356487611296621</v>
+        <v>14.04257191884219</v>
       </c>
       <c r="M15">
-        <v>15.41814263170095</v>
+        <v>13.78853311677304</v>
       </c>
       <c r="N15">
-        <v>5.741723280922714</v>
+        <v>5.468267095323598</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.46789846642221</v>
       </c>
       <c r="P15">
-        <v>14.74799729219608</v>
+        <v>6.00735530678616</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>13.73902587625199</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.53805111251571</v>
+        <v>16.41079343372402</v>
       </c>
       <c r="C16">
-        <v>9.454929320704386</v>
+        <v>9.942654172450311</v>
       </c>
       <c r="D16">
-        <v>2.278668874618988</v>
+        <v>3.111683948918135</v>
       </c>
       <c r="E16">
-        <v>4.82409933581242</v>
+        <v>5.344913875973907</v>
       </c>
       <c r="F16">
-        <v>32.22754716243545</v>
+        <v>28.4947364321421</v>
       </c>
       <c r="G16">
-        <v>2.139187477997126</v>
+        <v>9.315933095252591</v>
       </c>
       <c r="H16">
-        <v>7.303354643668872</v>
+        <v>7.045727958092953</v>
       </c>
       <c r="I16">
-        <v>4.281422923118993</v>
+        <v>3.731691960805935</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.99530171131616</v>
+        <v>19.19125769512681</v>
       </c>
       <c r="L16">
-        <v>5.318107567298007</v>
+        <v>14.39690472420836</v>
       </c>
       <c r="M16">
-        <v>15.01911143498634</v>
+        <v>14.00346056922092</v>
       </c>
       <c r="N16">
-        <v>5.712673065853184</v>
+        <v>5.443730226404515</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.30337456241644</v>
       </c>
       <c r="P16">
-        <v>14.86611647024926</v>
+        <v>6.003758101684623</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.90525938969976</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.40260613155873</v>
+        <v>16.33193641080627</v>
       </c>
       <c r="C17">
-        <v>9.265967165432421</v>
+        <v>9.927893632916851</v>
       </c>
       <c r="D17">
-        <v>2.309824932927816</v>
+        <v>3.056395830414672</v>
       </c>
       <c r="E17">
-        <v>4.820823241075894</v>
+        <v>5.358364493277342</v>
       </c>
       <c r="F17">
-        <v>32.66683883705974</v>
+        <v>29.20830487612808</v>
       </c>
       <c r="G17">
-        <v>2.140954092528657</v>
+        <v>8.959622178481681</v>
       </c>
       <c r="H17">
-        <v>6.685781910107385</v>
+        <v>6.384216786046262</v>
       </c>
       <c r="I17">
-        <v>4.350954771807674</v>
+        <v>3.778503021469622</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.30512881693936</v>
+        <v>19.63574969308864</v>
       </c>
       <c r="L17">
-        <v>5.287125558701686</v>
+        <v>14.77593096134447</v>
       </c>
       <c r="M17">
-        <v>14.89167798496874</v>
+        <v>14.28978746673657</v>
       </c>
       <c r="N17">
-        <v>5.876123976154035</v>
+        <v>5.410488340267066</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.26706860838694</v>
       </c>
       <c r="P17">
-        <v>15.01940052644957</v>
+        <v>6.185486905695583</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>14.04953106760368</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.58520047365006</v>
+        <v>16.49785019071924</v>
       </c>
       <c r="C18">
-        <v>9.170231340402692</v>
+        <v>9.938620220063363</v>
       </c>
       <c r="D18">
-        <v>2.380082401929008</v>
+        <v>3.097122205954885</v>
       </c>
       <c r="E18">
-        <v>4.934246379563283</v>
+        <v>5.466933700925904</v>
       </c>
       <c r="F18">
-        <v>33.78449115845088</v>
+        <v>30.34814066403184</v>
       </c>
       <c r="G18">
-        <v>2.141395884582915</v>
+        <v>8.859074686331923</v>
       </c>
       <c r="H18">
-        <v>5.640980955645841</v>
+        <v>5.275065288150895</v>
       </c>
       <c r="I18">
-        <v>4.358365393209808</v>
+        <v>3.778396601524966</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.98714872305179</v>
+        <v>20.28862740359226</v>
       </c>
       <c r="L18">
-        <v>5.290879006411889</v>
+        <v>15.30244093196161</v>
       </c>
       <c r="M18">
-        <v>14.99156231566139</v>
+        <v>14.75111946166273</v>
       </c>
       <c r="N18">
-        <v>6.23875205998738</v>
+        <v>5.396724484475461</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.39146337207008</v>
       </c>
       <c r="P18">
-        <v>15.24044118028216</v>
+        <v>6.566967001875346</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>14.2190463852402</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.97331815732285</v>
+        <v>16.82751780424109</v>
       </c>
       <c r="C19">
-        <v>9.182493419502631</v>
+        <v>10.02357987122157</v>
       </c>
       <c r="D19">
-        <v>2.489053560646251</v>
+        <v>3.207239708380798</v>
       </c>
       <c r="E19">
-        <v>5.222512360273827</v>
+        <v>5.726907057677527</v>
       </c>
       <c r="F19">
-        <v>35.29474257241591</v>
+        <v>31.7381658760167</v>
       </c>
       <c r="G19">
-        <v>2.140714408313594</v>
+        <v>8.748478713112819</v>
       </c>
       <c r="H19">
-        <v>4.496246363571421</v>
+        <v>4.042677853530644</v>
       </c>
       <c r="I19">
-        <v>4.327959611742544</v>
+        <v>3.756305201308265</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.87680021896311</v>
+        <v>21.05511453225966</v>
       </c>
       <c r="L19">
-        <v>5.366557634323699</v>
+        <v>15.90308020387931</v>
       </c>
       <c r="M19">
-        <v>15.25068005693555</v>
+        <v>15.31432012855289</v>
       </c>
       <c r="N19">
-        <v>6.759077212849156</v>
+        <v>5.441868453050436</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.64045925493808</v>
       </c>
       <c r="P19">
-        <v>15.50702865156629</v>
+        <v>7.106431604175867</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>14.40775604330039</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.95871821694042</v>
+        <v>17.64639733873878</v>
       </c>
       <c r="C20">
-        <v>9.449918856831079</v>
+        <v>10.28263111367498</v>
       </c>
       <c r="D20">
-        <v>2.682444512627335</v>
+        <v>3.48386336649685</v>
       </c>
       <c r="E20">
-        <v>5.921971126375501</v>
+        <v>6.370381337941697</v>
       </c>
       <c r="F20">
-        <v>37.94357408623471</v>
+        <v>33.87669795997969</v>
       </c>
       <c r="G20">
-        <v>2.136851175600814</v>
+        <v>8.537993635084375</v>
       </c>
       <c r="H20">
-        <v>3.43217887851542</v>
+        <v>2.911835301007818</v>
       </c>
       <c r="I20">
-        <v>4.164800897142188</v>
+        <v>3.638233283898801</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.39493503999292</v>
+        <v>22.1793019890914</v>
       </c>
       <c r="L20">
-        <v>5.625078385203711</v>
+        <v>16.71723296082334</v>
       </c>
       <c r="M20">
-        <v>15.95559060220055</v>
+        <v>16.21411069621896</v>
       </c>
       <c r="N20">
-        <v>7.663465924308574</v>
+        <v>5.635555415760182</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.24812574354581</v>
       </c>
       <c r="P20">
-        <v>15.90744970256513</v>
+        <v>8.030374558677288</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>14.63142428180733</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.05074071715863</v>
+        <v>18.3309192802875</v>
       </c>
       <c r="C21">
-        <v>10.08200639808605</v>
+        <v>10.20111805115224</v>
       </c>
       <c r="D21">
-        <v>2.768114595467582</v>
+        <v>4.035529224395469</v>
       </c>
       <c r="E21">
-        <v>6.191960025732778</v>
+        <v>6.731855930450726</v>
       </c>
       <c r="F21">
-        <v>39.20208579067975</v>
+        <v>33.33407240819736</v>
       </c>
       <c r="G21">
-        <v>2.130048465087982</v>
+        <v>12.33790964549635</v>
       </c>
       <c r="H21">
-        <v>3.086248219498479</v>
+        <v>2.669578937362887</v>
       </c>
       <c r="I21">
-        <v>3.89271087724762</v>
+        <v>3.470746575042459</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.97882394324946</v>
+        <v>21.64587558226101</v>
       </c>
       <c r="L21">
-        <v>5.745556323183586</v>
+        <v>16.13724274286019</v>
       </c>
       <c r="M21">
-        <v>16.81197191732562</v>
+        <v>16.01333332311389</v>
       </c>
       <c r="N21">
-        <v>7.995423557903615</v>
+        <v>5.703222793212618</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.61087632407639</v>
       </c>
       <c r="P21">
-        <v>15.84699066818987</v>
+        <v>8.309349890654836</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>14.25274642754808</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.72585143159693</v>
+        <v>18.73201811799087</v>
       </c>
       <c r="C22">
-        <v>10.46468256714519</v>
+        <v>10.09943200190346</v>
       </c>
       <c r="D22">
-        <v>2.828262926649447</v>
+        <v>4.402487415536278</v>
       </c>
       <c r="E22">
-        <v>6.331307270689492</v>
+        <v>6.949981205653974</v>
       </c>
       <c r="F22">
-        <v>39.95251773585898</v>
+        <v>32.84028736313621</v>
       </c>
       <c r="G22">
-        <v>2.125734209427158</v>
+        <v>16.43183037406519</v>
       </c>
       <c r="H22">
-        <v>2.875751297998255</v>
+        <v>2.524962420893258</v>
       </c>
       <c r="I22">
-        <v>3.712183515893573</v>
+        <v>3.353904874642237</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.32874657524673</v>
+        <v>21.22643096502307</v>
       </c>
       <c r="L22">
-        <v>5.811220560415983</v>
+        <v>15.71843822311991</v>
       </c>
       <c r="M22">
-        <v>17.34043834690011</v>
+        <v>15.82346739199325</v>
       </c>
       <c r="N22">
-        <v>8.164689810868969</v>
+        <v>5.737581468819571</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.79851333285846</v>
       </c>
       <c r="P22">
-        <v>15.79803094962639</v>
+        <v>8.440363977141384</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.99955299943871</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.38629903226206</v>
+        <v>18.57431878997598</v>
       </c>
       <c r="C23">
-        <v>10.24725211707401</v>
+        <v>10.22315730349077</v>
       </c>
       <c r="D23">
-        <v>2.781791450191457</v>
+        <v>4.153509911144417</v>
       </c>
       <c r="E23">
-        <v>6.258349510586586</v>
+        <v>6.816246700464355</v>
       </c>
       <c r="F23">
-        <v>39.5983228157958</v>
+        <v>33.32522682433058</v>
       </c>
       <c r="G23">
-        <v>2.127995363668834</v>
+        <v>13.47581605718013</v>
       </c>
       <c r="H23">
-        <v>2.986073607817074</v>
+        <v>2.59658246350457</v>
       </c>
       <c r="I23">
-        <v>3.797988541862533</v>
+        <v>3.399969377980273</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.17732755296372</v>
+        <v>21.58640903675966</v>
       </c>
       <c r="L23">
-        <v>5.77853175045547</v>
+        <v>16.04091202756349</v>
       </c>
       <c r="M23">
-        <v>17.0671301853723</v>
+        <v>16.0308548934986</v>
       </c>
       <c r="N23">
-        <v>8.071206305444131</v>
+        <v>5.722981271164408</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.76050254249752</v>
       </c>
       <c r="P23">
-        <v>15.83567266496696</v>
+        <v>8.374240479661649</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>14.16809260041086</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.01949499997714</v>
+        <v>17.70241436242144</v>
       </c>
       <c r="C24">
-        <v>9.421271256640368</v>
+        <v>10.26710934456497</v>
       </c>
       <c r="D24">
-        <v>2.684594891193214</v>
+        <v>3.480641067864004</v>
       </c>
       <c r="E24">
-        <v>5.974119128615549</v>
+        <v>6.417707542674527</v>
       </c>
       <c r="F24">
-        <v>38.17063558065782</v>
+        <v>34.09775114506594</v>
       </c>
       <c r="G24">
-        <v>2.136759045393858</v>
+        <v>8.508263554534103</v>
       </c>
       <c r="H24">
-        <v>3.414367046793853</v>
+        <v>2.893938488740593</v>
       </c>
       <c r="I24">
-        <v>4.146868398864459</v>
+        <v>3.617115404322614</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.54584296081084</v>
+        <v>22.31901072076665</v>
       </c>
       <c r="L24">
-        <v>5.648596033182917</v>
+        <v>16.82750926860201</v>
       </c>
       <c r="M24">
-        <v>15.98638131660257</v>
+        <v>16.31565282771648</v>
       </c>
       <c r="N24">
-        <v>7.715454457944483</v>
+        <v>5.654885128833138</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.28053459265498</v>
       </c>
       <c r="P24">
-        <v>15.96115814153541</v>
+        <v>8.084915630147336</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>14.67351546848167</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.43697407009578</v>
+        <v>16.24068781751712</v>
       </c>
       <c r="C25">
-        <v>8.475209553048268</v>
+        <v>9.307109217403829</v>
       </c>
       <c r="D25">
-        <v>2.579116459645964</v>
+        <v>3.24742838024708</v>
       </c>
       <c r="E25">
-        <v>5.654460135839466</v>
+        <v>6.163037746545521</v>
       </c>
       <c r="F25">
-        <v>36.60905875877445</v>
+        <v>32.90832762533963</v>
       </c>
       <c r="G25">
-        <v>2.146544104553602</v>
+        <v>9.503655525464339</v>
       </c>
       <c r="H25">
-        <v>3.894112608884097</v>
+        <v>3.284107630937649</v>
       </c>
       <c r="I25">
-        <v>4.539424750166045</v>
+        <v>3.916475949477003</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>24.86450361967945</v>
+        <v>21.92008937228178</v>
       </c>
       <c r="L25">
-        <v>5.502897842309768</v>
+        <v>16.78618204548163</v>
       </c>
       <c r="M25">
-        <v>14.75008107554254</v>
+        <v>15.73924397988182</v>
       </c>
       <c r="N25">
-        <v>7.317182162297518</v>
+        <v>5.551933758990464</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.08220183631005</v>
       </c>
       <c r="P25">
-        <v>16.10045362429219</v>
+        <v>7.682397030515372</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>14.88406433594395</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
